--- a/outputs/ML_Results/carown_LR/Clermont.xlsx
+++ b/outputs/ML_Results/carown_LR/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ17" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ32" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="summ5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ6" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ23" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.658392474606539</v>
+        <v>2.961394834201853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04046059906746587</v>
+        <v>0.01952418987007445</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8510043737346352</v>
+        <v>-0.6113809011165469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2601551274018774</v>
+        <v>0.4049777665478799</v>
       </c>
     </row>
     <row r="4">
@@ -492,257 +492,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.62664293089024</v>
+        <v>-1.647733209420925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001968691704151034</v>
+        <v>0.0001045766642365747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.545952201216664</v>
+        <v>-1.400817543628056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00636337747001582</v>
+        <v>0.001346521337757824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.273241127360667</v>
+        <v>-1.814160157338629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004663515557759512</v>
+        <v>0.0004075025789793703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.102122794745334</v>
+        <v>-0.09810505493395956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001922620183563251</v>
+        <v>0.7409253546368781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.005811574082425152</v>
+        <v>0.0009556415770748101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.98442691846167</v>
+        <v>8.20939467690286e-09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001193473883163761</v>
+        <v>-0.01817766180546176</v>
       </c>
       <c r="C9" t="n">
-        <v>7.369858795672821e-11</v>
+        <v>0.00727822226924988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01938319120035432</v>
+        <v>0.9582757030474768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006802180627288419</v>
+        <v>0.0003566826381735562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9574391132742858</v>
+        <v>0.8554710256414175</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006119620524441933</v>
+        <v>0.002429153393612414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8244352157113847</v>
+        <v>0.2839159914695741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005280916293535578</v>
+        <v>0.3989493841332103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3949340615379898</v>
+        <v>2.995848664847896e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2659108996917514</v>
+        <v>0.7120276881792913</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.962803376723368e-05</v>
+        <v>-1.293462677644291e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2747833932450948</v>
+        <v>0.1193512044912745</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.529813283571914e-07</v>
+        <v>-0.1601776797122847</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07170290053323643</v>
+        <v>0.1316728306760053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2234310571584422</v>
+        <v>0.09144393035940865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04760403131205504</v>
+        <v>0.1312170720098129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.129467243188476</v>
+        <v>4.125812633774369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04153381391955115</v>
+        <v>0.5967189927927192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02628042148800263</v>
+        <v>-0.01217315218244382</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9973789665363965</v>
+        <v>0.1878056341952201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01489924208397593</v>
+        <v>0.0001852239918842521</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1036786447208216</v>
+        <v>0.975543786871425</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0004891447323050348</v>
+        <v>3.474200335750806</v>
       </c>
       <c r="C20" t="n">
-        <v>0.934003510602158</v>
+        <v>0.1875651311142208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.0552529561544</v>
+        <v>4.759462919247579</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4613331151779785</v>
+        <v>0.1032714798140833</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.499225742692749</v>
+        <v>-3.060417750906196</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1363913886158845</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.082778012813806</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3341731760519379</v>
+        <v>0.1313693368644869</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.738695877222439</v>
+        <v>1.83856865494182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02890576186740428</v>
+        <v>0.1537805585384323</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9019199657131751</v>
+        <v>-1.256252346010618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2080755594875706</v>
+        <v>0.0854019090106963</v>
       </c>
     </row>
     <row r="4">
@@ -814,257 +801,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.516530424919776</v>
+        <v>-1.709515420870297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003478012565228856</v>
+        <v>7.568692008109053e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.457562774858282</v>
+        <v>-1.391137320567103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02065935197187839</v>
+        <v>0.001699617338794239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.358959769498339</v>
+        <v>-1.852983831278619</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001866800097123871</v>
+        <v>0.0006942964433512263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.491211029411567</v>
+        <v>0.1018832722784063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005769051169519341</v>
+        <v>0.7323961159869989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02021763714568993</v>
+        <v>0.001003272058158625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9447552057261788</v>
+        <v>2.881395945410897e-09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001057776060608983</v>
+        <v>-0.01598087780490533</v>
       </c>
       <c r="C9" t="n">
-        <v>4.661521598790701e-10</v>
+        <v>0.02285779639706849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02008961097684629</v>
+        <v>0.8494326324330297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003856698725723695</v>
+        <v>0.002019548884643665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.807750972119627</v>
+        <v>1.051802978753356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002826270658838805</v>
+        <v>0.000341346107554124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8451317317239591</v>
+        <v>0.4175906298244173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003212629104098138</v>
+        <v>0.2329539701401946</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3516138870390325</v>
+        <v>8.165753937748469e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3042812987318393</v>
+        <v>0.3049434480857969</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.317457613616119e-05</v>
+        <v>-2.092625548918398e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7762701394565474</v>
+        <v>0.0105991317273945</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.542678734748732e-07</v>
+        <v>-0.1863371150656946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0649163574468534</v>
+        <v>0.08031399484889067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1427616200421223</v>
+        <v>0.09948542997302842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1955543862189997</v>
+        <v>0.1049031204105364</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1037393832729488</v>
+        <v>-0.496178828750755</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0990108758724414</v>
+        <v>0.9484351851376677</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.940924701403466</v>
+        <v>-0.006647757589978232</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6145518508522176</v>
+        <v>0.4657391169727093</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005992716864033892</v>
+        <v>0.004465660846387221</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5108238550536948</v>
+        <v>0.4703401704274678</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001795946060090963</v>
+        <v>3.212444754674535</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7575463302093076</v>
+        <v>0.2322753601403555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.964498204371736</v>
+        <v>6.48471698457992</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1482641972307751</v>
+        <v>0.02484334267543672</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.00194436066235</v>
+        <v>-3.097333297705257</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04279843397809335</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.862672519974858</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.06329740387357675</v>
+        <v>0.1312399467817623</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.089417650950337</v>
+        <v>2.676357478306098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09267726890060686</v>
+        <v>0.03549516456491868</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.035231688076353</v>
+        <v>-1.001250682545448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1519455444584233</v>
+        <v>0.1589951466424121</v>
       </c>
     </row>
     <row r="4">
@@ -1136,257 +1110,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.454696410727352</v>
+        <v>-1.526701984362536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000464480232281494</v>
+        <v>0.0003524728778399349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.525544891377251</v>
+        <v>-1.328473032644695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006623716258459895</v>
+        <v>0.002386998247537779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.108772695115175</v>
+        <v>-1.780870143624069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00968287262493262</v>
+        <v>0.00057398782423403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.657650417348164</v>
+        <v>0.02869838233176969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004939467092395398</v>
+        <v>0.921843637122264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06562659394763888</v>
+        <v>0.0009647042579592758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8211641923425768</v>
+        <v>1.246527061272019e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009792712661474447</v>
+        <v>-0.01671560499149596</v>
       </c>
       <c r="C9" t="n">
-        <v>3.819776874930057e-09</v>
+        <v>0.01482164988826016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01464556867393484</v>
+        <v>0.9910827067955967</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03172244834440176</v>
+        <v>0.0003483271613716948</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7940426700806283</v>
+        <v>1.024081059198369</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003365199961499354</v>
+        <v>0.0003912157015845104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.073050943874078</v>
+        <v>0.513034775586083</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002390717707468163</v>
+        <v>0.1331080988369066</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3788050158541922</v>
+        <v>5.658045889572241e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2669484701428422</v>
+        <v>0.4754442454774839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.554196939994223e-05</v>
+        <v>-1.445339125349424e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4934580392506034</v>
+        <v>0.07641891671981563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.729707678624529e-07</v>
+        <v>-0.1095094823109108</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03602807320088724</v>
+        <v>0.3088564658022441</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1522036392655011</v>
+        <v>0.07580023358105374</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1498450777988092</v>
+        <v>0.218181683234541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0905027186098508</v>
+        <v>-2.171701836449053</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1318737405191437</v>
+        <v>0.7723233531122898</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.464641563852246</v>
+        <v>-0.009377316849141332</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8482795739817685</v>
+        <v>0.3010832106546457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008834479493744003</v>
+        <v>-0.002527116768949718</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3231598825258672</v>
+        <v>0.6604569329166642</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0003196451760076949</v>
+        <v>3.040368684531382</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9551802476619853</v>
+        <v>0.2527705216294365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.608281218024659</v>
+        <v>4.939230087406575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3234050333039342</v>
+        <v>0.08393161438925011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.246238739836981</v>
+        <v>-2.898559523297889</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06426958765201657</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.436224672418425</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2310317328243423</v>
+        <v>0.1594170352229038</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.62314249536524</v>
+        <v>2.158026009980972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03700187383255617</v>
+        <v>0.1109044998065529</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5310930524397172</v>
+        <v>-0.7334199535136797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4931780890859265</v>
+        <v>0.3638664931320539</v>
       </c>
     </row>
     <row r="4">
@@ -1458,257 +1419,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.535586410736681</v>
+        <v>-1.30524624133094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003409746213616815</v>
+        <v>0.005515038979162168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.496750465396079</v>
+        <v>-1.063095622427829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007903485618645166</v>
+        <v>0.02624254338001043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.280918153685036</v>
+        <v>-1.621605987056475</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003690523309734715</v>
+        <v>0.002890298423849049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.334959770715757</v>
+        <v>0.1688838213225538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01107288822199296</v>
+        <v>0.6273704433783147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01924332725265453</v>
+        <v>0.001196705121616719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9485048437017612</v>
+        <v>4.667857598974321e-11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009710589284945346</v>
+        <v>-0.0206876679331023</v>
       </c>
       <c r="C9" t="n">
-        <v>1.464818643188497e-08</v>
+        <v>0.003334489657942379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01653181851511818</v>
+        <v>0.7802784522836547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01643434751535676</v>
+        <v>0.004109158183899484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9713745315623018</v>
+        <v>0.780483921704632</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004446214859985852</v>
+        <v>0.008345714091716612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9819930033015707</v>
+        <v>0.3487512402689619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007834409924712128</v>
+        <v>0.3212287328854033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3608796159222801</v>
+        <v>4.60930167639792e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2977532780996601</v>
+        <v>0.5721034298247134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001037491092485766</v>
+        <v>-1.349664287015779e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2007677679161091</v>
+        <v>0.1057253466211816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.213575026137355e-07</v>
+        <v>-0.1610987772365855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008280878535909555</v>
+        <v>0.1369719067070554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09183470972210911</v>
+        <v>0.09961563824391839</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3818415629184586</v>
+        <v>0.1119945300494169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04971360532650452</v>
+        <v>0.2439449803098026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4150185951281998</v>
+        <v>0.9752401105775685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.987235656883465</v>
+        <v>-0.01279473719519558</v>
       </c>
       <c r="C18" t="n">
-        <v>0.898698443992081</v>
+        <v>0.1698755470470977</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01286345317111349</v>
+        <v>-0.0003097838686397913</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1644200784663189</v>
+        <v>0.962596628167109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001108173644528783</v>
+        <v>3.225829158759049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8445740183581258</v>
+        <v>0.2409333374007855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.653226020740412</v>
+        <v>5.007071789890712</v>
       </c>
       <c r="C21" t="n">
-        <v>0.177229256163654</v>
+        <v>0.08798167183631359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.759255380066606</v>
+        <v>-2.727757465760767</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02163974396112798</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.174911559044481</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1243918071721038</v>
+        <v>0.1991606359195134</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.625324785430545</v>
+        <v>3.352852380408923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06183134032257722</v>
+        <v>0.009834633084503122</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2016992366405904</v>
+        <v>-1.003970376966876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8073496604581365</v>
+        <v>0.2035118966748869</v>
       </c>
     </row>
     <row r="4">
@@ -1780,257 +1728,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.843250736741564</v>
+        <v>-1.762621363568999</v>
       </c>
       <c r="C4" t="n">
-        <v>7.81214261904763e-05</v>
+        <v>0.0001109654218096663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.140274535505487</v>
+        <v>-1.37981685963972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07995666423846441</v>
+        <v>0.003160744624818611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.529188143687717</v>
+        <v>-1.969321771149551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001333689901783203</v>
+        <v>0.00032035276161706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.410769866048168</v>
+        <v>-0.01456359861517196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009601728612695124</v>
+        <v>0.9638619247208033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2283532044328541</v>
+        <v>0.001018691020001547</v>
       </c>
       <c r="C8" t="n">
-        <v>0.491177628663745</v>
+        <v>5.7986370734178e-09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001060949087233592</v>
+        <v>-0.01848799915904297</v>
       </c>
       <c r="C9" t="n">
-        <v>1.723767649507366e-09</v>
+        <v>0.01049400350240822</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01508861819267145</v>
+        <v>1.152346102237285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03367817936561956</v>
+        <v>5.526701425239177e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8789755003000806</v>
+        <v>0.8974455559744835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001449566853862265</v>
+        <v>0.002550569211271288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9103469401610045</v>
+        <v>0.3360627966889699</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002273913423206216</v>
+        <v>0.3467125810614535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2292209792481876</v>
+        <v>0.0001156777904525511</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5230293703349884</v>
+        <v>0.1628514642044383</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.171660898999963e-05</v>
+        <v>-2.180374278241465e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3839748893465792</v>
+        <v>0.01075811810056989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.898429847373508e-07</v>
+        <v>-0.1566514573168819</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0242146870843011</v>
+        <v>0.1496510689877964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1343206024028075</v>
+        <v>0.07835096953791484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2243131758681221</v>
+        <v>0.210448697202523</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1107803787180159</v>
+        <v>0.7378617765181928</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0797329501239786</v>
+        <v>0.9258949336743746</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.664647504437693</v>
+        <v>-0.02081733912425743</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7388175337471217</v>
+        <v>0.02694648441906271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008564587400861488</v>
+        <v>-0.00209591380282219</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3749175700224577</v>
+        <v>0.7146563204716156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003250911426986484</v>
+        <v>4.390485403270856</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6433735920021888</v>
+        <v>0.1093656724283852</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.301088368735724</v>
+        <v>7.575575352243175</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11115661275991</v>
+        <v>0.0125311037007613</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.194150347643351</v>
+        <v>-3.58901657304134</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0156823516717395</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-4.201914273002077</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.04165798790089062</v>
+        <v>0.08646023611929764</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.561988304740899</v>
+        <v>2.5021926400896</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04446614343031793</v>
+        <v>0.04673057875784194</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9139729722075755</v>
+        <v>-0.9708534665697718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2349566088263766</v>
+        <v>0.1791974200934924</v>
       </c>
     </row>
     <row r="4">
@@ -2102,257 +2037,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.50958749429846</v>
+        <v>-1.567224820466094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001079635635089974</v>
+        <v>0.0001982259309533142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.839846214839345</v>
+        <v>-1.397624279292127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001521059195905392</v>
+        <v>0.001310416487059578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.310956425774556</v>
+        <v>-1.642136959709376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005266286332734443</v>
+        <v>0.002592485935611831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.025243126449835</v>
+        <v>0.03587501074107991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03581591903966144</v>
+        <v>0.9020003518412016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1203796419252327</v>
+        <v>0.0009983691812126183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7166441621515622</v>
+        <v>2.108902755101168e-09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001007414571241132</v>
+        <v>-0.01649116905756475</v>
       </c>
       <c r="C9" t="n">
-        <v>3.003356786815944e-09</v>
+        <v>0.01775123254164264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01954036911989654</v>
+        <v>0.9286602705107694</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005171528119108183</v>
+        <v>0.0005827660478880272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8997149871417518</v>
+        <v>0.851646947243251</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008611432589448664</v>
+        <v>0.003186975865430134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9421343688131477</v>
+        <v>0.3255735167643086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001243374992064688</v>
+        <v>0.3442661972616816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6355954923721471</v>
+        <v>0.0001005631210477447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06666892107369896</v>
+        <v>0.2172015817189603</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.360657951158983e-05</v>
+        <v>-2.257061201830359e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5121025038673668</v>
+        <v>0.007691714527596569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.826913087309063e-07</v>
+        <v>-0.1545667077172292</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0290988778577352</v>
+        <v>0.1611373903800553</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1414753416057155</v>
+        <v>0.08225411164095472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1936118196931405</v>
+        <v>0.1729852482638148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06414906438799624</v>
+        <v>3.641549078875464</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3121583737647555</v>
+        <v>0.6362883573555037</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.641871457807378</v>
+        <v>-0.01129764303335611</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3991485785760919</v>
+        <v>0.2171274691510043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01123543266244626</v>
+        <v>-0.0002557345821218992</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2195068994014244</v>
+        <v>0.9651326043073601</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001207186578832301</v>
+        <v>2.572473499359286</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8334089136856893</v>
+        <v>0.3389792825513092</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.174905410911327</v>
+        <v>6.04968888700045</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1170908057327035</v>
+        <v>0.03812519337265263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.439833930206476</v>
+        <v>-2.622527685468216</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02649614154365414</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.658241752132624</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.07299766498400602</v>
+        <v>0.2088909578585335</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.966137673800427</v>
+        <v>2.332804979699691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1241818174614047</v>
+        <v>0.06427485886967078</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9394103751511678</v>
+        <v>-0.5945401198722743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1887889550792324</v>
+        <v>0.4297072588280837</v>
       </c>
     </row>
     <row r="4">
@@ -2424,257 +2346,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.470875069319517</v>
+        <v>-1.559394540560381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004229499711813933</v>
+        <v>0.0002640059458335885</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.440562771742127</v>
+        <v>-1.292681706382213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01330694173244649</v>
+        <v>0.003269232280581123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.216111649124214</v>
+        <v>-1.542832653319327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004590607699652529</v>
+        <v>0.005504700203632833</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.351535422574188</v>
+        <v>-0.03509883760202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01288224412147443</v>
+        <v>0.9051412492222948</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05141554963912544</v>
+        <v>0.000988994886416805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8585793929637077</v>
+        <v>5.615168372581177e-09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009728339215895125</v>
+        <v>-0.0181322011690347</v>
       </c>
       <c r="C9" t="n">
-        <v>5.10362805312899e-09</v>
+        <v>0.00990654510411606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01437697053738624</v>
+        <v>0.8969357080716081</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03874720536567491</v>
+        <v>0.00127057140575854</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9250382034678644</v>
+        <v>1.084062905621659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007112694443726275</v>
+        <v>0.0002276548207042543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.004688959689182</v>
+        <v>0.5463108189452409</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005213819740994437</v>
+        <v>0.1175597436473834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2914931719958718</v>
+        <v>1.902389306945343e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3957006035144278</v>
+        <v>0.8189229564176386</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.755794769802054e-05</v>
+        <v>-1.275618199531095e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5597597767803332</v>
+        <v>0.1327853577215178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.884967150479165e-07</v>
+        <v>-0.1138549322114077</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02453987774513328</v>
+        <v>0.2917077890138117</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1271072228502035</v>
+        <v>0.08654473403464615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2254283871189504</v>
+        <v>0.1712503764584994</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07535747998642511</v>
+        <v>0.6238398405593343</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2077548695821676</v>
+        <v>0.937032601563911</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.148752384491543</v>
+        <v>-0.01232673677758799</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6859345482258532</v>
+        <v>0.1772875591800765</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009384056875588154</v>
+        <v>-0.0006463697179203034</v>
       </c>
       <c r="C19" t="n">
-        <v>0.318716225757966</v>
+        <v>0.9095295464154148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001934972026935292</v>
+        <v>4.571264691964767</v>
       </c>
       <c r="C20" t="n">
-        <v>0.753667784346901</v>
+        <v>0.09252299523347511</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.567243811673393</v>
+        <v>6.709936716731671</v>
       </c>
       <c r="C21" t="n">
-        <v>0.340339606720678</v>
+        <v>0.02326724222087059</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.281459167826432</v>
+        <v>-3.489088320592668</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07156946804024111</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.342938194623856</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2549964588581434</v>
+        <v>0.09286599859048229</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.465456482728823</v>
+        <v>2.447667798002714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06251629259479879</v>
+        <v>0.05337119175269885</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.405357528181056</v>
+        <v>-1.096599121867674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06347066724610825</v>
+        <v>0.1317597707600824</v>
       </c>
     </row>
     <row r="4">
@@ -2746,257 +2655,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.5187866353273</v>
+        <v>-1.365932922016129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007918526192386226</v>
+        <v>0.001283442500510432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.809408916457315</v>
+        <v>-1.182793064125605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002255573467210593</v>
+        <v>0.006861691924161188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.426688027799077</v>
+        <v>-1.784367455108667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00210336151762881</v>
+        <v>0.0005056263287889001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.660161469653435</v>
+        <v>0.1439896750517454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01286391685277407</v>
+        <v>0.6281091945989389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1646373054960284</v>
+        <v>0.0009966304596800279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6065256366755398</v>
+        <v>3.595643212749229e-09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009947054777066525</v>
+        <v>-0.02101807914678685</v>
       </c>
       <c r="C9" t="n">
-        <v>1.601077907104578e-08</v>
+        <v>0.002459050603336608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0200806825556042</v>
+        <v>0.6574829252436002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004542540116253098</v>
+        <v>0.01417807519513857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9889009076116007</v>
+        <v>1.097220531246873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000618516275370823</v>
+        <v>0.0001750290232988557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.197691449411774</v>
+        <v>0.5216507658293927</v>
       </c>
       <c r="C12" t="n">
-        <v>9.066929109571533e-05</v>
+        <v>0.1270146226142818</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6126862203299979</v>
+        <v>4.252351754270869e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07855660064515724</v>
+        <v>0.5977471324817638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001190053673854452</v>
+        <v>-1.415463679775201e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1548502667950772</v>
+        <v>0.08668018680645764</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.825954753234868e-07</v>
+        <v>-0.1320079214991098</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03466484552415697</v>
+        <v>0.2191651068476436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1429844128701205</v>
+        <v>0.07953168311748678</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1966363552283762</v>
+        <v>0.193490329271602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09668827275847684</v>
+        <v>4.736094664909611</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1211299235770714</v>
+        <v>0.5441151857703976</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.088311103894566</v>
+        <v>-0.01077221179471224</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7897786104622644</v>
+        <v>0.2289944369834497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01787755823266935</v>
+        <v>-0.0003814598906766058</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05706546300601371</v>
+        <v>0.9466586401521815</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001813726934611191</v>
+        <v>4.42080022274264</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7703133382746907</v>
+        <v>0.09574537661841173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.048614017051491</v>
+        <v>5.936958843487867</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2633252850790393</v>
+        <v>0.03878404232037924</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.214899625268486</v>
+        <v>-3.921800534134148</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03805688694534334</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.494358686912059</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2382741982754022</v>
+        <v>0.05431062450221978</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.377099284836059</v>
+        <v>2.247460948071358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05667540253375506</v>
+        <v>0.07765360420986708</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.152545336089339</v>
+        <v>-0.6446990802155228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1122421962508586</v>
+        <v>0.3947107459348075</v>
       </c>
     </row>
     <row r="4">
@@ -3068,257 +2964,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.543845309847586</v>
+        <v>-1.556095141444796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002589924818484877</v>
+        <v>0.000366971193226749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.539853632956921</v>
+        <v>-1.266103283502227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007595792333587485</v>
+        <v>0.004735634084318348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.234415914219809</v>
+        <v>-1.772943044897459</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004515772888347734</v>
+        <v>0.0009973285120739447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.522260696956189</v>
+        <v>-0.05263374246239012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004758743572789541</v>
+        <v>0.8617499269131068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06479054928536862</v>
+        <v>0.001110862612218955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8285239136158826</v>
+        <v>5.007521692042326e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001034080216238016</v>
+        <v>-0.01317301419678805</v>
       </c>
       <c r="C9" t="n">
-        <v>7.027280491610792e-10</v>
+        <v>0.05924332340932497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01862864618944993</v>
+        <v>0.9307536093634895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007102771782685919</v>
+        <v>0.0007683919524003064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7620870166983429</v>
+        <v>0.8989041262411789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005046634666844434</v>
+        <v>0.002240702615661656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9902028905547259</v>
+        <v>0.2376735216100931</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006946143280083997</v>
+        <v>0.501537824281951</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3315797023872134</v>
+        <v>0.0001391641137480571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3344421792973016</v>
+        <v>0.09665213257844497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.654519204283506e-05</v>
+        <v>-2.44382459840206e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2844723309897467</v>
+        <v>0.004470394023246066</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.506164617520036e-07</v>
+        <v>-0.1456569915023254</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06670878388815511</v>
+        <v>0.1965590189607815</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1839172052048017</v>
+        <v>0.1199229307352717</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0864587484289866</v>
+        <v>0.05914399403780205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1146276371447384</v>
+        <v>-5.77011322185982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06055528718184262</v>
+        <v>0.469242726971939</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.273834751056568</v>
+        <v>-0.0102768319523921</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5733535116183714</v>
+        <v>0.2714449177234511</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01159798433375714</v>
+        <v>-0.001805582936691184</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1923660225581288</v>
+        <v>0.7563207396838658</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002748905529540823</v>
+        <v>3.141255553333093</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9611951890068173</v>
+        <v>0.2456784234157737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.258126492540249</v>
+        <v>7.599090785860597</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2208634817271782</v>
+        <v>0.01158040611096609</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.757269778453472</v>
+        <v>-3.049658950366843</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04251696645971203</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.973626417207327</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1475516871400419</v>
+        <v>0.1449771826819622</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Clermont.xlsx
+++ b/outputs/ML_Results/carown_LR/Clermont.xlsx
@@ -7,13 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ7" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ32" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ23" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ27" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ4" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.961394834201853</v>
+        <v>1.889403908787916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01952418987007445</v>
+        <v>0.1201891037811407</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6113809011165469</v>
+        <v>-0.8863304068330236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4049777665478799</v>
+        <v>0.2292554183594807</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.647733209420925</v>
+        <v>-1.395243964431794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001045766642365747</v>
+        <v>0.001230571927623959</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.400817543628056</v>
+        <v>-1.160419830031223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001346521337757824</v>
+        <v>0.00896357836422345</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.814160157338629</v>
+        <v>-1.456304316151954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004075025789793703</v>
+        <v>0.007378870805441475</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09810505493395956</v>
+        <v>0.05264654487613265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7409253546368781</v>
+        <v>0.860072349169816</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009556415770748101</v>
+        <v>0.001148061085388824</v>
       </c>
       <c r="C8" t="n">
-        <v>8.20939467690286e-09</v>
+        <v>1.48234796063386e-10</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01817766180546176</v>
+        <v>-0.01798108879668914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00727822226924988</v>
+        <v>0.01068289008013533</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9582757030474768</v>
+        <v>1.074295949582602</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003566826381735562</v>
+        <v>0.000210052835260579</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8554710256414175</v>
+        <v>1.007365595905376</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002429153393612414</v>
+        <v>0.0006815995483889033</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2839159914695741</v>
+        <v>0.4805595669883659</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3989493841332103</v>
+        <v>0.1666439090854248</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.995848664847896e-05</v>
+        <v>0.0001083801358397384</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7120276881792913</v>
+        <v>0.1821290521161479</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.293462677644291e-07</v>
+        <v>-2.258313512763698e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1193512044912745</v>
+        <v>0.00697913133552502</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1601776797122847</v>
+        <v>-0.1097443062246695</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1316728306760053</v>
+        <v>0.3020421680326552</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09144393035940865</v>
+        <v>0.07217696336951719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1312170720098129</v>
+        <v>0.220361434803181</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.125812633774369</v>
+        <v>-0.9515104630912017</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5967189927927192</v>
+        <v>0.901927129166642</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01217315218244382</v>
+        <v>-0.01006640331253393</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1878056341952201</v>
+        <v>0.2728774951288262</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0001852239918842521</v>
+        <v>-0.001040059239367531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.975543786871425</v>
+        <v>0.8555113844704151</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.474200335750806</v>
+        <v>-0.5949579175997715</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1875651311142208</v>
+        <v>0.5606085199950446</v>
       </c>
     </row>
     <row r="21">
@@ -713,23 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.759462919247579</v>
+        <v>3.092524235695638</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1032714798140833</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.060417750906196</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1313693368644869</v>
+        <v>0.09151593414944326</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.83856865494182</v>
+        <v>1.926200805456298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1537805585384323</v>
+        <v>0.1138954958863273</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.256252346010618</v>
+        <v>-0.9213228068468037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0854019090106963</v>
+        <v>0.2082565165065423</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.709515420870297</v>
+        <v>-1.596711863551991</v>
       </c>
       <c r="C4" t="n">
-        <v>7.568692008109053e-05</v>
+        <v>0.0002237054829845934</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.391137320567103</v>
+        <v>-1.419874210265702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001699617338794239</v>
+        <v>0.001354733418205476</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.852983831278619</v>
+        <v>-1.800807907125003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006942964433512263</v>
+        <v>0.0008731512186170784</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1018832722784063</v>
+        <v>-0.05735368134896471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7323961159869989</v>
+        <v>0.8469646925948662</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001003272058158625</v>
+        <v>0.001060976207856801</v>
       </c>
       <c r="C8" t="n">
-        <v>2.881395945410897e-09</v>
+        <v>8.88410901729726e-10</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01598087780490533</v>
+        <v>-0.01676299861988195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02285779639706849</v>
+        <v>0.02057530831430492</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8494326324330297</v>
+        <v>0.8087013731368698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002019548884643665</v>
+        <v>0.002400587363010588</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.051802978753356</v>
+        <v>0.8271741960271844</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000341346107554124</v>
+        <v>0.005816907383676462</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4175906298244173</v>
+        <v>0.234131049397864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2329539701401946</v>
+        <v>0.5196073799256498</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.165753937748469e-05</v>
+        <v>6.752811836139388e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3049434480857969</v>
+        <v>0.3976803977136097</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.092625548918398e-07</v>
+        <v>-1.70155987348366e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0105991317273945</v>
+        <v>0.03849961399720591</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1863371150656946</v>
+        <v>-0.07992821271276748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08031399484889067</v>
+        <v>0.4620058217909071</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09948542997302842</v>
+        <v>0.1245241147440486</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1049031204105364</v>
+        <v>0.0420514721217647</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.496178828750755</v>
+        <v>0.9083367005012319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9484351851376677</v>
+        <v>0.9067893485563058</v>
       </c>
     </row>
     <row r="18">
@@ -983,23 +970,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006647757589978232</v>
+        <v>-0.01140619716339727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4657391169727093</v>
+        <v>0.2102494510601221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004465660846387221</v>
+        <v>-0.0009454944280308624</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4703401704274678</v>
+        <v>0.8697007156315266</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.212444754674535</v>
+        <v>0.1211332384929771</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2322753601403555</v>
+        <v>0.905599473379571</v>
       </c>
     </row>
     <row r="21">
@@ -1022,23 +1009,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.48471698457992</v>
+        <v>2.881152602263655</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02484334267543672</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.097333297705257</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1312399467817623</v>
+        <v>0.115285164892533</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.676357478306098</v>
+        <v>2.740076513363183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03549516456491868</v>
+        <v>0.02401018979787092</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.001250682545448</v>
+        <v>-0.3541884421295802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1589951466424121</v>
+        <v>0.6528733269776161</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.526701984362536</v>
+        <v>-1.771209289194847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003524728778399349</v>
+        <v>6.388666404152834e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.328473032644695</v>
+        <v>-1.508858685996767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002386998247537779</v>
+        <v>0.0009252296347578011</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.780870143624069</v>
+        <v>-1.604693652920544</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00057398782423403</v>
+        <v>0.002078590640188901</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02869838233176969</v>
+        <v>-0.2428217594298926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.921843637122264</v>
+        <v>0.4509327866602214</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009647042579592758</v>
+        <v>0.0009414090660084804</v>
       </c>
       <c r="C8" t="n">
-        <v>1.246527061272019e-08</v>
+        <v>1.163166964876285e-08</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01671560499149596</v>
+        <v>-0.01749964317276027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01482164988826016</v>
+        <v>0.01170633053709751</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9910827067955967</v>
+        <v>0.8717585325900905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003483271613716948</v>
+        <v>0.001395981766377534</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.024081059198369</v>
+        <v>1.00509563685739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003912157015845104</v>
+        <v>0.0005086922549904441</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.513034775586083</v>
+        <v>0.2443114488579122</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1331080988369066</v>
+        <v>0.4796371885719496</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.658045889572241e-05</v>
+        <v>2.485912415332281e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4754442454774839</v>
+        <v>0.7605338581163973</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.445339125349424e-07</v>
+        <v>-1.392625490331614e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07641891671981563</v>
+        <v>0.09359502290979661</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1095094823109108</v>
+        <v>-0.1098615077565628</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3088564658022441</v>
+        <v>0.3041751866194612</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07580023358105374</v>
+        <v>0.1056824541204747</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218181683234541</v>
+        <v>0.07394654083013694</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.171701836449053</v>
+        <v>2.90044767886594</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7723233531122898</v>
+        <v>0.7033966478872291</v>
       </c>
     </row>
     <row r="18">
@@ -1292,23 +1266,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009377316849141332</v>
+        <v>-0.00924263670463517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3010832106546457</v>
+        <v>0.2987320584446563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002527116768949718</v>
+        <v>-0.0008175465173789275</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6604569329166642</v>
+        <v>0.8822474656274607</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.040368684531382</v>
+        <v>-0.2601269211435213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2527705216294365</v>
+        <v>0.7975478840837198</v>
       </c>
     </row>
     <row r="21">
@@ -1331,23 +1305,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.939230087406575</v>
+        <v>1.565127517404547</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08393161438925011</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.898559523297889</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1594170352229038</v>
+        <v>0.3831459260902425</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.158026009980972</v>
+        <v>1.921866568945856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1109044998065529</v>
+        <v>0.1072757611559574</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7334199535136797</v>
+        <v>-0.8276329673984134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3638664931320539</v>
+        <v>0.2452469837435455</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.30524624133094</v>
+        <v>-1.482668649473163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005515038979162168</v>
+        <v>0.0003528397969238787</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.063095622427829</v>
+        <v>-1.242915872024779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02624254338001043</v>
+        <v>0.003568768050898255</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.621605987056475</v>
+        <v>-1.633047204100743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002890298423849049</v>
+        <v>0.001348013140133516</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1688838213225538</v>
+        <v>-0.02546925685889705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6273704433783147</v>
+        <v>0.9295217248901184</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001196705121616719</v>
+        <v>0.0009628830935863495</v>
       </c>
       <c r="C8" t="n">
-        <v>4.667857598974321e-11</v>
+        <v>2.601923816413319e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0206876679331023</v>
+        <v>-0.01435646089197246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003334489657942379</v>
+        <v>0.03991963969277716</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7802784522836547</v>
+        <v>0.7813205244783552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004109158183899484</v>
+        <v>0.002717972998323553</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.780483921704632</v>
+        <v>1.030896662478606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008345714091716612</v>
+        <v>0.000249673270609126</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3487512402689619</v>
+        <v>0.2878037128856435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3212287328854033</v>
+        <v>0.3992897469503481</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.60930167639792e-05</v>
+        <v>4.320649072628669e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5721034298247134</v>
+        <v>0.591961061989528</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.349664287015779e-07</v>
+        <v>-1.592673202341112e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1057253466211816</v>
+        <v>0.0524634083194211</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1610987772365855</v>
+        <v>-0.1234554131288918</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1369719067070554</v>
+        <v>0.2440010129235206</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09961563824391839</v>
+        <v>0.08851235307860003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1119945300494169</v>
+        <v>0.1374504607315253</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2439449803098026</v>
+        <v>1.763658744680914</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9752401105775685</v>
+        <v>0.8164451195768161</v>
       </c>
     </row>
     <row r="18">
@@ -1601,23 +1562,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01279473719519558</v>
+        <v>-0.01087022483760172</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1698755470470977</v>
+        <v>0.2214901440099174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0003097838686397913</v>
+        <v>0.001206835254831588</v>
       </c>
       <c r="C19" t="n">
-        <v>0.962596628167109</v>
+        <v>0.8400540083255994</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.225829158759049</v>
+        <v>-0.08804700686013776</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2409333374007855</v>
+        <v>0.9300252266541646</v>
       </c>
     </row>
     <row r="21">
@@ -1640,23 +1601,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.007071789890712</v>
+        <v>2.244992310169911</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08798167183631359</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.727757465760767</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1991606359195134</v>
+        <v>0.2118651475630385</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.352852380408923</v>
+        <v>1.142293336852655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009834633084503122</v>
+        <v>0.3509476226570716</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.003970376966876</v>
+        <v>-1.131791523302229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2035118966748869</v>
+        <v>0.1244718208648335</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.762621363568999</v>
+        <v>-1.635893255836238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001109654218096663</v>
+        <v>0.0001836540178924183</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.37981685963972</v>
+        <v>-1.528748768355568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003160744624818611</v>
+        <v>0.0006450114734376261</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.969321771149551</v>
+        <v>-1.790837394973323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00032035276161706</v>
+        <v>0.0009808219772664258</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01456359861517196</v>
+        <v>0.06506633896823649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9638619247208033</v>
+        <v>0.8280716678365275</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001018691020001547</v>
+        <v>0.001065214679787524</v>
       </c>
       <c r="C8" t="n">
-        <v>5.7986370734178e-09</v>
+        <v>1.003572314320915e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01848799915904297</v>
+        <v>-0.0151753386602491</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01049400350240822</v>
+        <v>0.02919421034366407</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.152346102237285</v>
+        <v>0.8257794658960205</v>
       </c>
       <c r="C10" t="n">
-        <v>5.526701425239177e-05</v>
+        <v>0.002763986591321901</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8974455559744835</v>
+        <v>0.8703870059232253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002550569211271288</v>
+        <v>0.003158211692374928</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3360627966889699</v>
+        <v>0.2789935789214302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3467125810614535</v>
+        <v>0.4239501640499475</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001156777904525511</v>
+        <v>7.663482238001912e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1628514642044383</v>
+        <v>0.346722062670294</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.180374278241465e-07</v>
+        <v>-1.906478977944139e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01075811810056989</v>
+        <v>0.02177989391104645</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1566514573168819</v>
+        <v>-0.1793685978281417</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1496510689877964</v>
+        <v>0.08870012010155905</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07835096953791484</v>
+        <v>0.1189235712213557</v>
       </c>
       <c r="C16" t="n">
-        <v>0.210448697202523</v>
+        <v>0.04576046503874863</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7378617765181928</v>
+        <v>-1.779655056309342</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9258949336743746</v>
+        <v>0.8151861032798704</v>
       </c>
     </row>
     <row r="18">
@@ -1910,23 +1858,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02081733912425743</v>
+        <v>-0.006531645270598033</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02694648441906271</v>
+        <v>0.4737359833083851</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00209591380282219</v>
+        <v>0.006757587239546189</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7146563204716156</v>
+        <v>0.2694880582516945</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1884,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.390485403270856</v>
+        <v>-0.1832184758372554</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1093656724283852</v>
+        <v>0.8567372188768548</v>
       </c>
     </row>
     <row r="21">
@@ -1949,23 +1897,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.575575352243175</v>
+        <v>3.384662735269354</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0125311037007613</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.58901657304134</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.08646023611929764</v>
+        <v>0.06672477597042246</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.5021926400896</v>
+        <v>1.839955710982699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04673057875784194</v>
+        <v>0.1283545418111962</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9708534665697718</v>
+        <v>-1.154841020062945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1791974200934924</v>
+        <v>0.1093083290622892</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.567224820466094</v>
+        <v>-1.357140230776771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001982259309533142</v>
+        <v>0.001543867131394813</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.397624279292127</v>
+        <v>-1.013833711148245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001310416487059578</v>
+        <v>0.02166021391077319</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.642136959709376</v>
+        <v>-1.647443621905929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002592485935611831</v>
+        <v>0.001935689105151883</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03587501074107991</v>
+        <v>0.1569360741700024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9020003518412016</v>
+        <v>0.6021476909656653</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009983691812126183</v>
+        <v>0.0009784847716761925</v>
       </c>
       <c r="C8" t="n">
-        <v>2.108902755101168e-09</v>
+        <v>2.121565059896136e-09</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01649116905756475</v>
+        <v>-0.01665075501218349</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01775123254164264</v>
+        <v>0.01427919810853768</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9286602705107694</v>
+        <v>0.9218706263229047</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005827660478880272</v>
+        <v>0.0006219168969854734</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.851646947243251</v>
+        <v>0.9380525924382896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003186975865430134</v>
+        <v>0.001065413789675955</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3255735167643086</v>
+        <v>0.2709354986794155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3442661972616816</v>
+        <v>0.426884380122113</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001005631210477447</v>
+        <v>7.46000584580693e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2172015817189603</v>
+        <v>0.3501735958791856</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.257061201830359e-07</v>
+        <v>-2.033237053769372e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007691714527596569</v>
+        <v>0.01302362765036636</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1545667077172292</v>
+        <v>-0.1376532873013126</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1611373903800553</v>
+        <v>0.187501867862667</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08225411164095472</v>
+        <v>0.1008752142899606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1729852482638148</v>
+        <v>0.08419054635293709</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.641549078875464</v>
+        <v>1.42312985791634</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6362883573555037</v>
+        <v>0.8497965267994871</v>
       </c>
     </row>
     <row r="18">
@@ -2219,23 +2154,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01129764303335611</v>
+        <v>-0.008268270548822013</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2171274691510043</v>
+        <v>0.3633187825619947</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0002557345821218992</v>
+        <v>-0.0008731593020479621</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9651326043073601</v>
+        <v>0.8790891937133269</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.572473499359286</v>
+        <v>-0.4606218714987929</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3389792825513092</v>
+        <v>0.6507826151708265</v>
       </c>
     </row>
     <row r="21">
@@ -2258,23 +2193,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.04968888700045</v>
+        <v>2.298246535231244</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03812519337265263</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.622527685468216</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2088909578585335</v>
+        <v>0.2050657813116852</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.332804979699691</v>
+        <v>1.531141158973465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06427485886967078</v>
+        <v>0.2021611661656658</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5945401198722743</v>
+        <v>-0.6185121874798788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4297072588280837</v>
+        <v>0.4147802710489583</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.559394540560381</v>
+        <v>-1.442594512315235</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002640059458335885</v>
+        <v>0.0007707951621361122</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.292681706382213</v>
+        <v>-1.097913923629706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003269232280581123</v>
+        <v>0.01255529814913951</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.542832653319327</v>
+        <v>-1.898643475560373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005504700203632833</v>
+        <v>0.0003551655512339374</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2307,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03509883760202</v>
+        <v>0.06640040362810144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9051412492222948</v>
+        <v>0.8242991906259154</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000988994886416805</v>
+        <v>0.001075944362307297</v>
       </c>
       <c r="C8" t="n">
-        <v>5.615168372581177e-09</v>
+        <v>6.913100066848431e-10</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0181322011690347</v>
+        <v>-0.01897145310274058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00990654510411606</v>
+        <v>0.00557230184688075</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8969357080716081</v>
+        <v>0.9841335585598272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00127057140575854</v>
+        <v>0.0004282885162224638</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.084062905621659</v>
+        <v>0.9172779184768152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002276548207042543</v>
+        <v>0.001368064592513133</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5463108189452409</v>
+        <v>0.5660918953786647</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1175597436473834</v>
+        <v>0.09655959079072615</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.902389306945343e-05</v>
+        <v>7.907470833114444e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8189229564176386</v>
+        <v>0.3402994997259201</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.275618199531095e-07</v>
+        <v>-1.785706847243915e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1327853577215178</v>
+        <v>0.03411129423632952</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1138549322114077</v>
+        <v>-0.1231874696999725</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2917077890138117</v>
+        <v>0.2562452203996589</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08654473403464615</v>
+        <v>0.111833462098153</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1712503764584994</v>
+        <v>0.0696246839516908</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6238398405593343</v>
+        <v>0.3776062965435756</v>
       </c>
       <c r="C17" t="n">
-        <v>0.937032601563911</v>
+        <v>0.9614326928298962</v>
       </c>
     </row>
     <row r="18">
@@ -2528,23 +2450,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01232673677758799</v>
+        <v>-0.01249355594163612</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1772875591800765</v>
+        <v>0.1678949555773608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0006463697179203034</v>
+        <v>0.0006757273553530978</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9095295464154148</v>
+        <v>0.9055923858453805</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.571264691964767</v>
+        <v>0.05719434467363135</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09252299523347511</v>
+        <v>0.9558781048385394</v>
       </c>
     </row>
     <row r="21">
@@ -2567,23 +2489,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.709936716731671</v>
+        <v>3.298196668293665</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02326724222087059</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.489088320592668</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.09286599859048229</v>
+        <v>0.0733040496450736</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.447667798002714</v>
+        <v>2.336121122462313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05337119175269885</v>
+        <v>0.07159067166788</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.096599121867674</v>
+        <v>-0.9771949721000474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1317597707600824</v>
+        <v>0.2079532143254672</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.365932922016129</v>
+        <v>-1.748773692802723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001283442500510432</v>
+        <v>7.745507162074269e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2577,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.182793064125605</v>
+        <v>-1.43403570934804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006861691924161188</v>
+        <v>0.001587165973869116</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2590,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.784367455108667</v>
+        <v>-1.832195346545018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005056263287889001</v>
+        <v>0.0008991602882610646</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2603,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1439896750517454</v>
+        <v>-0.03468226689758928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6281091945989389</v>
+        <v>0.9094080194166512</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2616,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009966304596800279</v>
+        <v>0.001171176319058442</v>
       </c>
       <c r="C8" t="n">
-        <v>3.595643212749229e-09</v>
+        <v>9.356620148271021e-11</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02101807914678685</v>
+        <v>-0.02019204827300052</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002459050603336608</v>
+        <v>0.004142848548297363</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6574829252436002</v>
+        <v>0.7981321552677679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01417807519513857</v>
+        <v>0.003407288312335763</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.097220531246873</v>
+        <v>0.9087932492269373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001750290232988557</v>
+        <v>0.001960950936688393</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5216507658293927</v>
+        <v>0.4938549888325467</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1270146226142818</v>
+        <v>0.1600109689480728</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.252351754270869e-05</v>
+        <v>5.636280535267234e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5977471324817638</v>
+        <v>0.4905896881997444</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.415463679775201e-07</v>
+        <v>-1.657635679211444e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08668018680645764</v>
+        <v>0.04862290659964524</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1320079214991098</v>
+        <v>-0.162352163902049</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2191651068476436</v>
+        <v>0.1479349719698564</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07953168311748678</v>
+        <v>0.1245061200987101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193490329271602</v>
+        <v>0.04389454636921321</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.736094664909611</v>
+        <v>2.749423928007268</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5441151857703976</v>
+        <v>0.7328391255050763</v>
       </c>
     </row>
     <row r="18">
@@ -2837,23 +2746,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01077221179471224</v>
+        <v>-0.01027339548982589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2289944369834497</v>
+        <v>0.2781944189956911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0003814598906766058</v>
+        <v>0.0004025664462640182</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9466586401521815</v>
+        <v>0.9519309862582673</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.42080022274264</v>
+        <v>-0.5553750324051226</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09574537661841173</v>
+        <v>0.5982368139799461</v>
       </c>
     </row>
     <row r="21">
@@ -2876,23 +2785,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.936958843487867</v>
+        <v>2.08280896656918</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03878404232037924</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.921800534134148</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.05431062450221978</v>
+        <v>0.2746445437586466</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.247460948071358</v>
+        <v>2.338887055831585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07765360420986708</v>
+        <v>0.05932921496887739</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6446990802155228</v>
+        <v>-0.7502830598881103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3947107459348075</v>
+        <v>0.320274221841932</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.556095141444796</v>
+        <v>-1.617063348822561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000366971193226749</v>
+        <v>0.0004022659546857155</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.266103283502227</v>
+        <v>-1.345509714715818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004735634084318348</v>
+        <v>0.003912675452896533</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.772943044897459</v>
+        <v>-1.709739509522811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009973285120739447</v>
+        <v>0.001147157899954642</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05263374246239012</v>
+        <v>0.0292008943067708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8617499269131068</v>
+        <v>0.9288990161614649</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001110862612218955</v>
+        <v>0.00101354224263303</v>
       </c>
       <c r="C8" t="n">
-        <v>5.007521692042326e-10</v>
+        <v>2.493429470674604e-09</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01317301419678805</v>
+        <v>-0.01677754821389953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05924332340932497</v>
+        <v>0.01687021575470371</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9307536093634895</v>
+        <v>0.7528138125132157</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007683919524003064</v>
+        <v>0.005607264347842386</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8989041262411789</v>
+        <v>0.9614484167836496</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002240702615661656</v>
+        <v>0.0008626176011766336</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2376735216100931</v>
+        <v>0.4515133931092439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.501537824281951</v>
+        <v>0.1911661891965568</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001391641137480571</v>
+        <v>5.832696880624687e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09665213257844497</v>
+        <v>0.4776802342135819</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.44382459840206e-07</v>
+        <v>-1.622859199926715e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004470394023246066</v>
+        <v>0.05517867570605656</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1456569915023254</v>
+        <v>-0.1559120245449458</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1965590189607815</v>
+        <v>0.140828477750885</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1199229307352717</v>
+        <v>0.07136250612580096</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05914399403780205</v>
+        <v>0.2236267273888276</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.77011322185982</v>
+        <v>1.857117478596165</v>
       </c>
       <c r="C17" t="n">
-        <v>0.469242726971939</v>
+        <v>0.8104820921120914</v>
       </c>
     </row>
     <row r="18">
@@ -3146,23 +3042,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0102768319523921</v>
+        <v>-0.01452840981007388</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2714449177234511</v>
+        <v>0.10932487290292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001805582936691184</v>
+        <v>0.00026418302923531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7563207396838658</v>
+        <v>0.9624227622362715</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.141255553333093</v>
+        <v>-0.223723255043846</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2456784234157737</v>
+        <v>0.8272957981692108</v>
       </c>
     </row>
     <row r="21">
@@ -3185,23 +3081,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.599090785860597</v>
+        <v>2.836025226913277</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01158040611096609</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.049658950366843</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1449771826819622</v>
+        <v>0.1330689901300672</v>
       </c>
     </row>
   </sheetData>
